--- a/new_mediastack.xlsx
+++ b/new_mediastack.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>url</t>
   </si>
@@ -44,100 +44,13 @@
   </si>
   <si>
     <t>Incident_sub_type</t>
-  </si>
-  <si>
-    <t>https://dailytimes.com.pk/1087101/ukraine-confirms-it-will-play-on-in-euro-2024-qualifiers/</t>
-  </si>
-  <si>
-    <t>https://www.aljazeera.com/news/2023/4/26/russia-ukraine-war-list-of-key-events-day-427</t>
-  </si>
-  <si>
-    <t>https://dailytimes.com.pk/1086952/ruling-party-wants-s-africa-to-quit-icc-president/</t>
-  </si>
-  <si>
-    <t>https://sputnikglobe.com/20230426/lavrov-spoke-on-palestinian-israeli-settlements-reaffirmed-uae-ties-during-unsc-meet--1109835746.html</t>
-  </si>
-  <si>
-    <t>https://sputnikglobe.com/20230426/putin-signs-decree-on-response-measures-if-russian-assets-abroad-seized-1109835192.html</t>
-  </si>
-  <si>
-    <t>https://www.nextbigfuture.com/2023/04/ukrainian-military-has-beachhead-on-the-other-side-of-the-dnipro-river.html</t>
-  </si>
-  <si>
-    <t>https://www.wgmd.com/united-nations-condemns-summary-execution-of-prisoners-of-war-by-both-russia-ukraine/</t>
-  </si>
-  <si>
-    <t>https://www.workers.org/2023/04/70573/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=lessons-from-lenin-for-international-workers-day</t>
-  </si>
-  <si>
-    <t>Ukraine confirms it will play on in Euro 2024 qualifiers</t>
-  </si>
-  <si>
-    <t>Russia-Ukraine war: List of key events, day 427</t>
-  </si>
-  <si>
-    <t>Ruling party wants S.Africa to quit ICC: president</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lavrov Spoke on Palestinian-Israeli Settlements, Reaffirmed UAE Ties During UNSC Meet </t>
-  </si>
-  <si>
-    <t>Putin Signs Decree on Response Measures if Russian Assets Abroad Seized</t>
-  </si>
-  <si>
-    <t>Ukrainian Military Has Beachhead on the Other Side of the Dnipro River</t>
-  </si>
-  <si>
-    <t>United Nations condemns ‘summary execution of prisoners of war’ by both Russia, Ukraine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lessons from Lenin for International Workers Day </t>
-  </si>
-  <si>
-    <t>KYIV: Ukraine will continue playing Euro 2024 qualifying matches despite a government ban on Ukrainian national teams taking part in competitions involving athletes from Russia and Belarus, the country said on Monday. Kyiv imposed the ban, which covers Olympic, non-Olympic and Paralympic events, over Moscow&amp;#8217;s invasion of Ukraine and the use of neighbouring Belarus as [&amp;#8230;]</t>
-  </si>
-  <si>
-    <t>As the war enters its 427th day, we take a look at the main developments.</t>
-  </si>
-  <si>
-    <t>President Cyril Ramaphosa said Tuesday his ruling ANC party had resolved that South Africa should quit the International Criminal Court, which last month issued an arrest warrant against Russian President Vladimir Putin. The ICC issued an arrest warrant against Putin in March meaning Pretoria, due to host the Brazil, Russia, India, China and South Africa [&amp;#8230;]</t>
-  </si>
-  <si>
-    <t>MOSCOW (Sputnik) - Russian Foreign Minister Sergey Lavrov and his Palestinian counterpart Riyad al-Maliki discussed the Palestino-Israeli settlement, the Russian Foreign Ministry said in a statement.</t>
-  </si>
-  <si>
-    <t>MOSCOW (Sputnik) - Russian President Vladimir Putin on Tuesday signed a decree on the transfer of foreign assets to temporary management of Russia’s Federal Agency for State Property Management (Rosimushchestvo) if Russian assets abroad are seized.</t>
-  </si>
-  <si>
-    <t>In the Kherson region, Ukrainians have increased their bridgehead on the eastern bank of the Dnipro River to the point where many Russian sources started raising the alarm. Ukrainians established control over the proximate island with a lot of places for docking. Ukrainians are present in the residential area of one of the biggest and ... Read more</t>
-  </si>
-  <si>
-    <t>The United Nations called on Russia and Ukraine to treat prisoners of war humanely Tuesday, days after recordings emerged that appeared to show military leaders on both sides of the fight calling for the summary execution of prisoners. "If verified, the order to summarily execute persons hors de combat, including prisoners of war, followed by their killing or an attempt to do so amounts to a war crime, as does the declaration that no quarter will be given," Ravina Shamdasani, spokesperson for the UN's High Commissioner for Human Rights, said in a statement Tuesday. "We call on Russian and...</t>
-  </si>
-  <si>
-    <t>International Workers Day, also known as May Day, reminds us of an anecdote about the 1917 Russian Revolution regarding the working class.  At the time, the Bolshevik Party, trained and led by V.I. Lenin was in the process of seizing power. An anti-Bolshevik intellectual was arguing with a Bolshevik worker . . .Continue reading Lessons from Lenin for International Workers Day at Workers.org</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>2023-04-26</t>
-  </si>
-  <si>
-    <t>2023-04-25</t>
-  </si>
-  <si>
-    <t>2023-04-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,13 +65,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,22 +99,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -501,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="B1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="2:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,273 +439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" t="s">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/new_mediastack.xlsx
+++ b/new_mediastack.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
   <si>
     <t>url</t>
   </si>
@@ -34,23 +34,188 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
+    <t>GPE</t>
+  </si>
+  <si>
+    <t>LOC</t>
   </si>
   <si>
     <t>Incident_type</t>
   </si>
   <si>
     <t>Incident_sub_type</t>
+  </si>
+  <si>
+    <t>https://www.marketscreener.com/quote/currency/US-DOLLAR-RUSSIAN-ROUBL-2370597/news/Ukrainian-forces-shell-village-in-Russia-s-Bryansk-region-governor-43706149/?utm_medium=RSS&amp;utm_content=20230502</t>
+  </si>
+  <si>
+    <t>https://dailytimes.com.pk/1089054/russian-freight-train-derails-after-hitting-explosive-device/</t>
+  </si>
+  <si>
+    <t>https://www.independent.co.uk/news/world/europe/ukraine-war-russia-missiles-bakhmut-b2330357.html</t>
+  </si>
+  <si>
+    <t>https://www.deseret.com/u-s-world/2023/5/1/23706363/ukraine-russia-second-major-air-strike-3-days</t>
+  </si>
+  <si>
+    <t>https://euroweeklynews.com/2023/05/01/video-emerges-of-ukrainian-homes-destroyed-by-russian-strike-in-pavlohrad/</t>
+  </si>
+  <si>
+    <t>https://japantoday.com/category/world/russia-missile-attack-on-ukraine-injures-25-damages-homes</t>
+  </si>
+  <si>
+    <t>https://www.denverpost.com/2023/05/01/russia-missile-attack-on-ukraine-injures-34-damages-homes/</t>
+  </si>
+  <si>
+    <t>https://www.upi.com/Top_News/World-News/2023/05/01/Ukraine-Russia-missile-attacks/9401682943442/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Ukrainian forces shell village in Russia's Bryansk region - governor            </t>
+  </si>
+  <si>
+    <t>Russian freight train derails after hitting ‘explosive device’</t>
+  </si>
+  <si>
+    <t>Fresh wave of Russian missile strikes across Ukraine leave 34 wounded</t>
+  </si>
+  <si>
+    <t>Russia fires second major air strike on Ukraine in 3 days</t>
+  </si>
+  <si>
+    <t>Video emerges of Ukrainian homes destroyed by Russian Strike in Pavlohrad</t>
+  </si>
+  <si>
+    <t>Russia missile attack on Ukraine injures 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">			Russia missile attack on Ukraine injures 34, damages homes		</t>
+  </si>
+  <si>
+    <t>Dozens injured in Russian missile strikes on Ukraine's Dnipro region</t>
+  </si>
+  <si>
+    <t>(marketscreener.com) Ukrainian forces shelled a village in the Russian Bryansk region bordering Ukraine early on Tuesday, the local governor said in a social media post, a day after an explosion derailed a freight train in the region. https://www.marketscreener.com/quote/currency/US-DOLLAR-RUSSIAN-ROUBL-2370597/news/Ukrainian-forces-shell-village-in-Russia-s-Bryansk-region-governor-43706149/?utm_medium=RSS&amp;utm_content=20230502</t>
+  </si>
+  <si>
+    <t>A Russian freight train derailed Monday in the western region of Bryansk bordering Ukraine after an &amp;#8220;explosive device&amp;#8221; detonated on the rail tracks, the local governor said. The apparent attack came a day after a Ukrainian strike killed four people in a Russian village in the Bryansk region and as Kyiv prepared for a widely [&amp;#8230;]</t>
+  </si>
+  <si>
+    <t>An explosion derailed a freight train inside Russia hours after the latest missile assault</t>
+  </si>
+  <si>
+    <t>Fire and smoke raise after artillery shelling near Bakhmut, an eastern city where fierce battles between Ukrainian and Russian forces have been taking place, in the Donetsk region, Ukraine, Saturday, April 29, 2023.Libkos, Associated Press Early Monday morning, air raid sirens sounded in Ukrainian cities for the second time in three days, as Russia fired 18 more missiles at the country, wounding at least 34 people in Pavlohrad. The attack follows the missile strike from Friday that killed at least 19 in the central city of Uman. The Ukrainian military was able to combat 15 of the 18 missiles...</t>
+  </si>
+  <si>
+    <t>A video has emerged of the latest Russian airstrike, targeting a residential area in Pavlohrad, Ukraine. The video, posted today (May 1) by The Guardian depicts local people showing the film crew what remains of their homes. Russian strikes bombarded the Ukrainian city of Pavlohrad, leaving locals tearful and shocked. The airstrikes are thought to [&amp;#8230;]Source</t>
+  </si>
+  <si>
+    <t>Russia launched its second large salvo of missiles at Ukraine in recent days early Monday, damaging buildings and wounding at least 34 people in the eastern city of…</t>
+  </si>
+  <si>
+    <t>Ukrainian officials say that Russia launched its second large salvo of missiles at Ukraine in recent days. The attack damaged buildings and wounded at least 34 people in the eastern city of Pavlohrad but failed to hit Kyiv. Air raid sirens began blaring across the capital at about 3:45 a.m. Monday followed by the sounds of explosions as missiles were intercepted by Ukrainian defense systems. The Ukrainian armed forces commander-in-chief said that 18 cruisemissiles were fired in total from Murmansk and the Caspian region and 15 of them were intercepted. The attack follows Friday&amp;#8217;s launch...</t>
+  </si>
+  <si>
+    <t>Dozens of people were injured in Ukraine as Russia launched a pre-dawn missile strike, officials said Monday.</t>
+  </si>
+  <si>
+    <t>Sajid Salamat</t>
+  </si>
+  <si>
+    <t>Chris Stevenson</t>
+  </si>
+  <si>
+    <t>Rebecca Olds</t>
+  </si>
+  <si>
+    <t>David Laycork</t>
+  </si>
+  <si>
+    <t>The Associated Press</t>
+  </si>
+  <si>
+    <t>4-traders</t>
+  </si>
+  <si>
+    <t>Daily Times</t>
+  </si>
+  <si>
+    <t>Independent</t>
+  </si>
+  <si>
+    <t>deseretnews</t>
+  </si>
+  <si>
+    <t>euroweeklynews</t>
+  </si>
+  <si>
+    <t>japantoday</t>
+  </si>
+  <si>
+    <t>photos</t>
+  </si>
+  <si>
+    <t>upi</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>2023-05-02</t>
+  </si>
+  <si>
+    <t>2023-05-01</t>
+  </si>
+  <si>
+    <t>['Ukraine']</t>
+  </si>
+  <si>
+    <t>['Bryansk, Ukraine, Ukrainian']</t>
+  </si>
+  <si>
+    <t>['Russia']</t>
+  </si>
+  <si>
+    <t>['Bakhmut, Donetsk, Pavlohrad, Russia, Ukraine, Ukrainian']</t>
+  </si>
+  <si>
+    <t>['Pavlohrad, Ukraine']</t>
+  </si>
+  <si>
+    <t>['Russia, Ukraine']</t>
+  </si>
+  <si>
+    <t>['Kyiv, Murmansk, Pavlohrad, Russia, Ukraine, Ukrainian']</t>
+  </si>
+  <si>
+    <t>['']</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>blast</t>
+  </si>
+  <si>
+    <t>missile</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>indirect_fire</t>
+  </si>
+  <si>
+    <t>ied</t>
+  </si>
+  <si>
+    <t>fixed_wing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +230,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,16 +271,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -401,13 +579,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K1"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,7 +617,276 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>77</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>84</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>71</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>73</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>96</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/new_mediastack.xlsx
+++ b/new_mediastack.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evian/Desktop/NAV_Capstone/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFEE3AD-1AA7-2945-9888-54C03B8A6FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="28560" windowHeight="16980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mediastack_Scraped" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="70">
   <si>
     <t>url</t>
   </si>
@@ -46,176 +52,191 @@
     <t>Incident_sub_type</t>
   </si>
   <si>
-    <t>https://www.marketscreener.com/quote/currency/US-DOLLAR-RUSSIAN-ROUBL-2370597/news/Ukrainian-forces-shell-village-in-Russia-s-Bryansk-region-governor-43706149/?utm_medium=RSS&amp;utm_content=20230502</t>
-  </si>
-  <si>
-    <t>https://dailytimes.com.pk/1089054/russian-freight-train-derails-after-hitting-explosive-device/</t>
-  </si>
-  <si>
-    <t>https://www.independent.co.uk/news/world/europe/ukraine-war-russia-missiles-bakhmut-b2330357.html</t>
-  </si>
-  <si>
-    <t>https://www.deseret.com/u-s-world/2023/5/1/23706363/ukraine-russia-second-major-air-strike-3-days</t>
-  </si>
-  <si>
-    <t>https://euroweeklynews.com/2023/05/01/video-emerges-of-ukrainian-homes-destroyed-by-russian-strike-in-pavlohrad/</t>
-  </si>
-  <si>
-    <t>https://japantoday.com/category/world/russia-missile-attack-on-ukraine-injures-25-damages-homes</t>
-  </si>
-  <si>
-    <t>https://www.denverpost.com/2023/05/01/russia-missile-attack-on-ukraine-injures-34-damages-homes/</t>
-  </si>
-  <si>
-    <t>https://www.upi.com/Top_News/World-News/2023/05/01/Ukraine-Russia-missile-attacks/9401682943442/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Ukrainian forces shell village in Russia's Bryansk region - governor            </t>
-  </si>
-  <si>
-    <t>Russian freight train derails after hitting ‘explosive device’</t>
-  </si>
-  <si>
-    <t>Fresh wave of Russian missile strikes across Ukraine leave 34 wounded</t>
-  </si>
-  <si>
-    <t>Russia fires second major air strike on Ukraine in 3 days</t>
-  </si>
-  <si>
-    <t>Video emerges of Ukrainian homes destroyed by Russian Strike in Pavlohrad</t>
-  </si>
-  <si>
-    <t>Russia missile attack on Ukraine injures 34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">			Russia missile attack on Ukraine injures 34, damages homes		</t>
-  </si>
-  <si>
-    <t>Dozens injured in Russian missile strikes on Ukraine's Dnipro region</t>
-  </si>
-  <si>
-    <t>(marketscreener.com) Ukrainian forces shelled a village in the Russian Bryansk region bordering Ukraine early on Tuesday, the local governor said in a social media post, a day after an explosion derailed a freight train in the region. https://www.marketscreener.com/quote/currency/US-DOLLAR-RUSSIAN-ROUBL-2370597/news/Ukrainian-forces-shell-village-in-Russia-s-Bryansk-region-governor-43706149/?utm_medium=RSS&amp;utm_content=20230502</t>
-  </si>
-  <si>
-    <t>A Russian freight train derailed Monday in the western region of Bryansk bordering Ukraine after an &amp;#8220;explosive device&amp;#8221; detonated on the rail tracks, the local governor said. The apparent attack came a day after a Ukrainian strike killed four people in a Russian village in the Bryansk region and as Kyiv prepared for a widely [&amp;#8230;]</t>
-  </si>
-  <si>
-    <t>An explosion derailed a freight train inside Russia hours after the latest missile assault</t>
-  </si>
-  <si>
-    <t>Fire and smoke raise after artillery shelling near Bakhmut, an eastern city where fierce battles between Ukrainian and Russian forces have been taking place, in the Donetsk region, Ukraine, Saturday, April 29, 2023.Libkos, Associated Press Early Monday morning, air raid sirens sounded in Ukrainian cities for the second time in three days, as Russia fired 18 more missiles at the country, wounding at least 34 people in Pavlohrad. The attack follows the missile strike from Friday that killed at least 19 in the central city of Uman. The Ukrainian military was able to combat 15 of the 18 missiles...</t>
-  </si>
-  <si>
-    <t>A video has emerged of the latest Russian airstrike, targeting a residential area in Pavlohrad, Ukraine. The video, posted today (May 1) by The Guardian depicts local people showing the film crew what remains of their homes. Russian strikes bombarded the Ukrainian city of Pavlohrad, leaving locals tearful and shocked. The airstrikes are thought to [&amp;#8230;]Source</t>
-  </si>
-  <si>
-    <t>Russia launched its second large salvo of missiles at Ukraine in recent days early Monday, damaging buildings and wounding at least 34 people in the eastern city of…</t>
-  </si>
-  <si>
-    <t>Ukrainian officials say that Russia launched its second large salvo of missiles at Ukraine in recent days. The attack damaged buildings and wounded at least 34 people in the eastern city of Pavlohrad but failed to hit Kyiv. Air raid sirens began blaring across the capital at about 3:45 a.m. Monday followed by the sounds of explosions as missiles were intercepted by Ukrainian defense systems. The Ukrainian armed forces commander-in-chief said that 18 cruisemissiles were fired in total from Murmansk and the Caspian region and 15 of them were intercepted. The attack follows Friday&amp;#8217;s launch...</t>
-  </si>
-  <si>
-    <t>Dozens of people were injured in Ukraine as Russia launched a pre-dawn missile strike, officials said Monday.</t>
-  </si>
-  <si>
-    <t>Sajid Salamat</t>
-  </si>
-  <si>
-    <t>Chris Stevenson</t>
-  </si>
-  <si>
-    <t>Rebecca Olds</t>
-  </si>
-  <si>
-    <t>David Laycork</t>
-  </si>
-  <si>
-    <t>The Associated Press</t>
+    <t>https://www.marketscreener.com/quote/currency/US-DOLLAR-RUSSIAN-ROUBL-2370597/news/Russia-s-Lavrov-says-Kremlin-drone-incident-was-hostile-act-43753979/?utm_medium=RSS&amp;utm_content=20230505</t>
+  </si>
+  <si>
+    <t>https://www.marketscreener.com/quote/stock/GAZPROM-6491735/news/Gazprom-to-ship-40-8-mcm-of-gas-to-Europe-via-Ukraine-on-Friday-43752682/?utm_medium=RSS&amp;utm_content=20230505</t>
+  </si>
+  <si>
+    <t>https://www.laprensalatina.com/ukraine-shoots-down-russia-fired-drones-its-own-uav-over-kyiv/</t>
+  </si>
+  <si>
+    <t>https://www.theage.com.au/world/europe/why-the-kremlin-drone-incident-gives-putin-cover-to-deepen-ukraine-war-20230505-p5d60k.html?ref=rss&amp;utm_medium=rss&amp;utm_source=rss_feed</t>
+  </si>
+  <si>
+    <t>https://www.theage.com.au/world/europe/why-the-kremlin-drone-incident-gives-putin-cover-to-deepen-ukraine-war-20230505-p5d60k.html?ref=rss&amp;utm_medium=rss&amp;utm_source=rss_world</t>
+  </si>
+  <si>
+    <t>https://www.smh.com.au/world/europe/why-the-kremlin-drone-incident-gives-putin-cover-to-deepen-ukraine-war-20230505-p5d60k.html?ref=rss&amp;utm_medium=rss&amp;utm_source=rss_feed</t>
+  </si>
+  <si>
+    <t>https://www.brisbanetimes.com.au/world/europe/why-the-kremlin-drone-incident-gives-putin-cover-to-deepen-ukraine-war-20230505-p5d60k.html?ref=rss&amp;utm_medium=rss&amp;utm_source=rss_feed</t>
+  </si>
+  <si>
+    <t>https://www.brisbanetimes.com.au/world/europe/why-the-kremlin-drone-incident-gives-putin-cover-to-deepen-ukraine-war-20230505-p5d60k.html?ref=rss&amp;utm_medium=rss&amp;utm_source=rss_world</t>
+  </si>
+  <si>
+    <t>https://www.dailymail.co.uk/news/article-12047889/Navy-scrambles-ship-Russian-warship-spotted-stalking-UK-coast.html?ns_mchannel=rss&amp;ito=1490&amp;ns_campaign=1490</t>
+  </si>
+  <si>
+    <t>https://www.dailymail.co.uk/news/article-12048037/Liverpool-drone-no-fly-zone-Eurovision-security-fears-city-holds-contest-Ukraine.html?ns_mchannel=rss&amp;ito=1490&amp;ns_campaign=1490</t>
+  </si>
+  <si>
+    <t>https://www.dailymail.co.uk/galleries/article-12050529/Navy-scrambles-ship-Russian-warship-spotted-stalking-UK-coast.html?ns_mchannel=rss&amp;ns_campaign=1490&amp;ito=1490</t>
+  </si>
+  <si>
+    <t>https://www.dailymail.co.uk/galleries/article-12050529/Navy-scrambles-ship-Russian-warship-spotted-stalking-UK-coast.html?ns_mchannel=rss&amp;ito=1490&amp;ns_campaign=1490</t>
+  </si>
+  <si>
+    <t>https://sputnikglobe.com/20230505/video-russian-t-80-battle-tanks-in-action-during-special-military-op-1110112695.html</t>
+  </si>
+  <si>
+    <t>https://nationalpost.com/pmn/news-pmn/russias-war-on-ukraine-latest-new-drone-attack-on-southern-russia-refinery</t>
+  </si>
+  <si>
+    <t>https://www.watoday.com.au/world/europe/why-the-kremlin-drone-incident-gives-putin-cover-to-deepen-ukraine-war-20230505-p5d60k.html?ref=rss&amp;utm_medium=rss&amp;utm_source=rss_feed</t>
+  </si>
+  <si>
+    <t>https://www.watoday.com.au/world/europe/why-the-kremlin-drone-incident-gives-putin-cover-to-deepen-ukraine-war-20230505-p5d60k.html?ref=rss&amp;utm_medium=rss&amp;utm_source=rss_world</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Russia's Lavrov says Kremlin drone incident was 'hostile act'            </t>
+  </si>
+  <si>
+    <t>Gazprom to ship 40.8 mcm of gas to Europe via Ukraine on Friday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">			Ukraine shoots down Russia-fired drones, its own UAV over Kyiv		</t>
+  </si>
+  <si>
+    <t>Why the Kremlin drone incident gives Putin cover to deepen Ukraine war</t>
+  </si>
+  <si>
+    <t>Navy scrambles ship to Russian warship spotted stalking the UK coast </t>
+  </si>
+  <si>
+    <t>Liverpool drone no-fly zone during Eurovision over security fears as city holds contest for Ukraine </t>
+  </si>
+  <si>
+    <t>Video: Russian T-80 Battle Tanks in Action During Special Military Op</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Russia's war on Ukraine latest: New drone attack on southern Russia refinery </t>
+  </si>
+  <si>
+    <t>(marketscreener.com) Russian Foreign Minister Sergei Lavrov said on Friday that Wednesday's drone incident at the Kremlin was a "hostile act" and Russia would respond with "concrete actions".https://www.marketscreener.com/quote/currency/US-DOLLAR-RUSSIAN-ROUBL-2370597/news/Russia-s-Lavrov-says-Kremlin-drone-incident-was-hostile-act-43753979/?utm_medium=RSS&amp;utm_content=20230505</t>
+  </si>
+  <si>
+    <t>(marketscreener.com) Russia's Gazprom said itwould ship 40.8 million cubic metres of gas to Europe viaUkraine on Friday, the same level as on Thursday. https://www.marketscreener.com/quote/stock/GAZPROM-6491735/news/Gazprom-to-ship-40-8-mcm-of-gas-to-Europe-via-Ukraine-on-Friday-43752682/?utm_medium=RSS&amp;utm_content=20230505</t>
+  </si>
+  <si>
+    <t>Kyiv, May 5 (EFE).- Ukraine&amp;#8217;s air defenses shotdown several Iran-made Shahed unmanned aerial vehicles (UAVs or drones) launched by Russia, as well as its own malfunctioning Bayraktar drone above Kyiv, Ukrainian authorities reported Friday. Russia on Thursday launched 24 Shahed drones against Ukrainian territory, with Ukraine shooting down 18 of them, according to its &amp;#8230;The post Ukraine shoots down Russia-fired drones, its own UAV over Kyiv appeared first on La Prensa Latina Media.</t>
+  </si>
+  <si>
+    <t>Although the drones were destroyed before causing serious damage, the incident highlighted the apparent vulnerability of central Moscow.</t>
+  </si>
+  <si>
+    <t>The Type 23 frigate - described by the Navy as the 'core of the front-line Fleet' - has set sail for the North Sea.</t>
+  </si>
+  <si>
+    <t>Drones will be restricted from flying above Liverpool during the Eurovision Song Contest, as police in Merseyside prepare for their biggest ever operation.</t>
+  </si>
+  <si>
+    <t>The T-80 battle tank was designed as an upgraded version of the T-64 and T-72 tanks and was intended to be more effective. One of the key features of the T-80 is its gas turbine engine, which provides high power-to-weight ratio and allows it to reach top speeds of up to 70 km/h.</t>
+  </si>
+  <si>
+    <t>A drone attack on the Ilsky oil refinery in southern Russia, the second in as many days, has caused a fire, TASS news agency reported on Friday, citing emergency services. WAGNER * Standing in a field of corpses, Russian mercenary boss Yevgeny Prigozhin published an expletive-ridden video personally blaming top defense chiefs for losses suffered [&amp;#8230;]</t>
+  </si>
+  <si>
+    <t>Online News Editor</t>
+  </si>
+  <si>
+    <t>Andrew Osborn</t>
+  </si>
+  <si>
+    <t>Reuters</t>
   </si>
   <si>
     <t>4-traders</t>
   </si>
   <si>
-    <t>Daily Times</t>
-  </si>
-  <si>
-    <t>Independent</t>
-  </si>
-  <si>
-    <t>deseretnews</t>
-  </si>
-  <si>
-    <t>euroweeklynews</t>
-  </si>
-  <si>
-    <t>japantoday</t>
-  </si>
-  <si>
-    <t>photos</t>
-  </si>
-  <si>
-    <t>upi</t>
+    <t>Prensa latina</t>
+  </si>
+  <si>
+    <t>The Age</t>
+  </si>
+  <si>
+    <t>The Sydney Morning Herald</t>
+  </si>
+  <si>
+    <t>brisbanetimes</t>
+  </si>
+  <si>
+    <t>dailymail</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>nationalpost</t>
+  </si>
+  <si>
+    <t>watoday</t>
+  </si>
+  <si>
+    <t>2023-05-05</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
-    <t>2023-05-02</t>
-  </si>
-  <si>
-    <t>2023-05-01</t>
-  </si>
-  <si>
-    <t>['Ukraine']</t>
-  </si>
-  <si>
-    <t>['Bryansk, Ukraine, Ukrainian']</t>
+    <t>2023-05-04</t>
+  </si>
+  <si>
+    <t>2023-00-00</t>
   </si>
   <si>
     <t>['Russia']</t>
   </si>
   <si>
-    <t>['Bakhmut, Donetsk, Pavlohrad, Russia, Ukraine, Ukrainian']</t>
-  </si>
-  <si>
-    <t>['Pavlohrad, Ukraine']</t>
-  </si>
-  <si>
-    <t>['Russia, Ukraine']</t>
-  </si>
-  <si>
-    <t>['Kyiv, Murmansk, Pavlohrad, Russia, Ukraine, Ukrainian']</t>
+    <t>['Iran, Kyiv, Russia, Ukraine, Ukrainian']</t>
+  </si>
+  <si>
+    <t>['Moscow']</t>
   </si>
   <si>
     <t>['']</t>
   </si>
   <si>
+    <t>['Merseyside']</t>
+  </si>
+  <si>
+    <t>['the North Sea']</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>maritime</t>
+  </si>
+  <si>
     <t>land</t>
   </si>
   <si>
-    <t>blast</t>
-  </si>
-  <si>
-    <t>missile</t>
-  </si>
-  <si>
-    <t>air</t>
-  </si>
-  <si>
-    <t>indirect_fire</t>
-  </si>
-  <si>
-    <t>ied</t>
-  </si>
-  <si>
-    <t>fixed_wing</t>
+    <t>loitering_munition</t>
+  </si>
+  <si>
+    <t>uav</t>
+  </si>
+  <si>
+    <t>direct_fire</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +312,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -337,7 +366,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -369,9 +398,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -403,6 +450,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -578,14 +643,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="207" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26.83203125" customWidth="1"/>
+    <col min="3" max="3" width="77.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,275 +696,551 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="K7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="K8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>61</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>86</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>67</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>71</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" t="s">
         <v>60</v>
+      </c>
+      <c r="I17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
